--- a/数据整理/stocks/港股/00564-郑煤机.xlsx
+++ b/数据整理/stocks/港股/00564-郑煤机.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.02</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,25 +596,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501023</t>
+          <t>001703</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+          <t>银华沪港深增长股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -594,25 +634,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001703</t>
+          <t>501023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华沪港深增长股票</t>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.24</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00564-郑煤机.xlsx
+++ b/数据整理/stocks/港股/00564-郑煤机.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>41.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>41.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00564-郑煤机.xlsx
+++ b/数据整理/stocks/港股/00564-郑煤机.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00564-郑煤机.xlsx
+++ b/数据整理/stocks/港股/00564-郑煤机.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -887,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,17 +899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -918,14 +939,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.14</v>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -934,14 +977,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -950,13 +1083,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00564-郑煤机.xlsx
+++ b/数据整理/stocks/港股/00564-郑煤机.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1067,14 +1110,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -1083,14 +1216,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -1099,13 +1232,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00564-郑煤机.xlsx
+++ b/数据整理/stocks/港股/00564-郑煤机.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1153,7 +1154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,17 +1165,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1205,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.14</v>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1200,14 +1243,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -1216,14 +1349,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -1232,14 +1365,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -1248,13 +1381,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00564-郑煤机.xlsx
+++ b/数据整理/stocks/港股/00564-郑煤机.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501023</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.16</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -601,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001703</t>
+          <t>009141</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华沪港深增长股票</t>
+          <t>泰达宏利价值长青混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.24</t>
+          <t>87.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1772</t>
+          <t>0.1010</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -639,12 +677,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501023</t>
+          <t>009142</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+          <t>泰达宏利价值长青混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -654,21 +692,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>87.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,7 +741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -733,36 +771,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012010</t>
+          <t>040018</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+          <t>华安香港精选股票(QDII)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.42</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24.25</t>
+          <t>88.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1242</t>
+          <t>0.1346</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -771,112 +809,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012315</t>
+          <t>040021</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+          <t>华安大中华升级股票(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>41.95</t>
+          <t>87.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>012316</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>41.95</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>012011</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>24.25</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,7 +1005,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1073,36 +1035,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>040018</t>
+          <t>012010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安香港精选股票(QDII)</t>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>21.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.46</t>
+          <t>24.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1346</t>
+          <t>0.1242</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1111,36 +1073,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>040021</t>
+          <t>012315</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安大中华升级股票(QDII)</t>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.37</t>
+          <t>41.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>41.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1175,7 +1213,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1205,36 +1243,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009141</t>
+          <t>001703</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利价值长青混合A</t>
+          <t>银华沪港深增长股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>88.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1010</t>
+          <t>0.1772</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1243,12 +1281,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009142</t>
+          <t>501023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利价值长青混合C</t>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1258,21 +1296,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1286,128 +1324,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00564-郑煤机.xlsx
+++ b/数据整理/stocks/港股/00564-郑煤机.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009141</t>
+          <t>011355</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利价值长青混合A</t>
+          <t>华泰柏瑞港股通时代机遇混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>91.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1010</t>
+          <t>0.0248</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +694,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009142</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利价值长青混合C</t>
+          <t>华泰柏瑞亚洲领导企业混合（QDII）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>93.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.0176</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -771,36 +826,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>040018</t>
+          <t>009141</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安香港精选股票(QDII)</t>
+          <t>泰达宏利价值长青混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.46</t>
+          <t>87.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1346</t>
+          <t>0.1010</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -809,36 +864,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>040021</t>
+          <t>009142</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安大中华升级股票(QDII)</t>
+          <t>泰达宏利价值长青混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.37</t>
+          <t>87.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -903,32 +958,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012315</t>
+          <t>040018</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+          <t>华安香港精选股票(QDII)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>88.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0068</t>
+          <t>0.1346</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -941,36 +996,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012316</t>
+          <t>040021</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+          <t>华安大中华升级股票(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>87.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0062</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -979,6 +1034,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1186,7 +1373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1318,7 +1505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
